--- a/烧江南烤肉.xlsx
+++ b/烧江南烤肉.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="烧江南烤肉（环宇城店）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="烧江南烤肉（环宇城店）" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -855,6 +855,74 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1119,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA147"/>
+  <dimension ref="A1:BA160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
@@ -24280,7 +24348,6 @@
           <t>2696.60</t>
         </is>
       </c>
-      <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
           <t>4</t>
@@ -24319,6 +24386,1463 @@
       <c r="AF147" t="inlineStr">
         <is>
           <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>160.78</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>1,913</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>2126.00</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>160.78</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>1,913</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>2126.00</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>160.78</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>1,913</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>2126.00</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>2129.60</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>115.43</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>1,443</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>1526.40</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>1533.60</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>1533.60</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2022-03-17</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>115.43</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>1,443</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>1526.40</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>1533.60</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>1533.60</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA152" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>189.85</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>2,299</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>3552.00</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>189.85</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>2,299</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>3552.00</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>189.85</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>2,299</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>3552.00</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>189.85</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>2,299</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>3552.00</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2022-03-18</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>189.85</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>2,299</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>3552.00</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>236.31</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>2,855</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>3411.00</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>3411</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
     </row>
